--- a/b.xlsx
+++ b/b.xlsx
@@ -15,6 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -51,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -357,30 +361,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>222222222222</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>222222222222</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2222222222222220</v>
+      <c r="A3" s="1">
+        <v>222222222222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3333333333</v>
       </c>
     </row>
   </sheetData>
